--- a/StructureDefinition-cdm-careplan.xlsx
+++ b/StructureDefinition-cdm-careplan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-20T17:48:04+00:00</t>
+    <t>2021-09-21T12:28:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-careplan.xlsx
+++ b/StructureDefinition-cdm-careplan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-21T12:28:41+00:00</t>
+    <t>2021-09-28T19:40:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-careplan.xlsx
+++ b/StructureDefinition-cdm-careplan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-28T19:40:31+00:00</t>
+    <t>2021-10-01T15:07:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-careplan.xlsx
+++ b/StructureDefinition-cdm-careplan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-19T14:45:01+00:00</t>
+    <t>2021-12-16T17:36:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-careplan.xlsx
+++ b/StructureDefinition-cdm-careplan.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.0.0</t>
+    <t>6.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-21T20:46:54+00:00</t>
+    <t>2022-05-31T20:10:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>IBM Health Data Connect Common Data Model definition of what fields we currently define for a care plan</t>
+    <t>Health Data Connect Common Data Model definition of what fields we currently define for a care plan</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/StructureDefinition-cdm-careplan.xlsx
+++ b/StructureDefinition-cdm-careplan.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.1.0</t>
+    <t>6.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-31T20:10:14+00:00</t>
+    <t>2022-06-06T15:56:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-careplan.xlsx
+++ b/StructureDefinition-cdm-careplan.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.1.1</t>
+    <t>7.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T15:56:40+00:00</t>
+    <t>2022-09-01T20:48:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1950,44 +1950,44 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="42.671875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="126.98046875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="126.984375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="159.06640625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="159.0703125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="53.859375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="42.671875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="55.8046875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="173.13671875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="145.8359375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="145.83984375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/StructureDefinition-cdm-careplan.xlsx
+++ b/StructureDefinition-cdm-careplan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T20:48:10+00:00</t>
+    <t>2022-09-01T21:20:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-careplan.xlsx
+++ b/StructureDefinition-cdm-careplan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T21:20:10+00:00</t>
+    <t>2022-09-01T21:41:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-careplan.xlsx
+++ b/StructureDefinition-cdm-careplan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T21:41:49+00:00</t>
+    <t>2022-09-01T22:10:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-careplan.xlsx
+++ b/StructureDefinition-cdm-careplan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T22:10:22+00:00</t>
+    <t>2022-09-06T15:46:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-careplan.xlsx
+++ b/StructureDefinition-cdm-careplan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T15:46:40+00:00</t>
+    <t>2022-09-06T17:14:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-careplan.xlsx
+++ b/StructureDefinition-cdm-careplan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T17:14:02+00:00</t>
+    <t>2022-09-06T21:02:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-careplan.xlsx
+++ b/StructureDefinition-cdm-careplan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T21:02:26+00:00</t>
+    <t>2022-09-06T21:25:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-careplan.xlsx
+++ b/StructureDefinition-cdm-careplan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T21:25:20+00:00</t>
+    <t>2022-09-07T15:39:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-careplan.xlsx
+++ b/StructureDefinition-cdm-careplan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T15:39:45+00:00</t>
+    <t>2022-09-07T17:21:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-careplan.xlsx
+++ b/StructureDefinition-cdm-careplan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T17:21:01+00:00</t>
+    <t>2022-09-07T17:59:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-careplan.xlsx
+++ b/StructureDefinition-cdm-careplan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T17:59:32+00:00</t>
+    <t>2022-09-07T18:17:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-careplan.xlsx
+++ b/StructureDefinition-cdm-careplan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T18:17:14+00:00</t>
+    <t>2022-09-07T18:58:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-careplan.xlsx
+++ b/StructureDefinition-cdm-careplan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T18:58:38+00:00</t>
+    <t>2022-09-07T20:17:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-careplan.xlsx
+++ b/StructureDefinition-cdm-careplan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T20:17:32+00:00</t>
+    <t>2022-09-07T20:41:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-careplan.xlsx
+++ b/StructureDefinition-cdm-careplan.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2465" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2465" uniqueCount="526">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T20:41:11+00:00</t>
+    <t>2022-09-08T16:11:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -275,220 +275,224 @@
     <t>Y</t>
   </si>
   <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>CarePlan.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta {http://ibm.com/fhir/cdm/StructureDefinition/process-meta}
+</t>
+  </si>
+  <si>
+    <t>Metadata about a resource</t>
+  </si>
+  <si>
+    <t>The metadata about a resource. This is content in the resource that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>CarePlan.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>CarePlan.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>CarePlan.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>CarePlan.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>CarePlan.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>CarePlan.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>CarePlan.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>External Ids for this plan</t>
+  </si>
+  <si>
+    <t>Business identifiers assigned to this care plan by the performer or other systems which remain constant as the resource is updated and propagates from server to server.</t>
+  </si>
+  <si>
+    <t>This is a business identifier, not a resource identifier (see [discussion](http://hl7.org/fhir/R4/resource.html#identifiers)).  It is best practice for the identifier to only appear on a single resource instance, however business practices may occasionally dictate that multiple resource instances with the same identifier can exist - possibly even with different resource types.  For example, multiple Patient and a Person resource instance might share the same social insurance number.</t>
+  </si>
+  <si>
+    <t>Allows identification of the care plan as it is known by various participating systems and in a way that remains consistent across servers.</t>
+  </si>
+  <si>
+    <t>Request.identifier</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>PTH-3</t>
+  </si>
+  <si>
+    <t>CarePlan.identifier.id</t>
+  </si>
+  <si>
     <t xml:space="preserve">string
 </t>
-  </si>
-  <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>CarePlan.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta {http://ibm.com/fhir/cdm/StructureDefinition/process-meta}
-</t>
-  </si>
-  <si>
-    <t>Metadata about a resource</t>
-  </si>
-  <si>
-    <t>The metadata about a resource. This is content in the resource that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>CarePlan.implicitRules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>CarePlan.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>CarePlan.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>CarePlan.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>CarePlan.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>CarePlan.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>CarePlan.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>External Ids for this plan</t>
-  </si>
-  <si>
-    <t>Business identifiers assigned to this care plan by the performer or other systems which remain constant as the resource is updated and propagates from server to server.</t>
-  </si>
-  <si>
-    <t>This is a business identifier, not a resource identifier (see [discussion](http://hl7.org/fhir/R4/resource.html#identifiers)).  It is best practice for the identifier to only appear on a single resource instance, however business practices may occasionally dictate that multiple resource instances with the same identifier can exist - possibly even with different resource types.  For example, multiple Patient and a Person resource instance might share the same social insurance number.</t>
-  </si>
-  <si>
-    <t>Allows identification of the care plan as it is known by various participating systems and in a way that remains consistent across servers.</t>
-  </si>
-  <si>
-    <t>Request.identifier</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>PTH-3</t>
-  </si>
-  <si>
-    <t>CarePlan.identifier.id</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -3244,13 +3248,13 @@
         <v>77</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>86</v>
+        <v>153</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -3301,7 +3305,7 @@
         <v>77</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>75</v>
@@ -3319,7 +3323,7 @@
         <v>77</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>77</v>
@@ -3330,7 +3334,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3359,7 +3363,7 @@
         <v>132</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M13" t="s" s="2">
         <v>134</v>
@@ -3400,19 +3404,19 @@
         <v>77</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AC13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>75</v>
@@ -3430,7 +3434,7 @@
         <v>77</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>77</v>
@@ -3441,7 +3445,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3467,16 +3471,16 @@
         <v>106</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>77</v>
@@ -3501,13 +3505,13 @@
         <v>77</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>77</v>
@@ -3525,7 +3529,7 @@
         <v>77</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>75</v>
@@ -3543,7 +3547,7 @@
         <v>77</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>77</v>
@@ -3554,7 +3558,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3577,19 +3581,19 @@
         <v>85</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>77</v>
@@ -3614,11 +3618,11 @@
         <v>77</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="X15" s="2"/>
       <c r="Y15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>77</v>
@@ -3636,7 +3640,7 @@
         <v>77</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>75</v>
@@ -3654,18 +3658,18 @@
         <v>77</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3691,16 +3695,16 @@
         <v>100</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>77</v>
@@ -3713,7 +3717,7 @@
         <v>77</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="T16" t="s" s="2">
         <v>77</v>
@@ -3749,7 +3753,7 @@
         <v>77</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>75</v>
@@ -3767,18 +3771,18 @@
         <v>77</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3801,16 +3805,16 @@
         <v>85</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>86</v>
+        <v>153</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3824,7 +3828,7 @@
         <v>77</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="T17" t="s" s="2">
         <v>77</v>
@@ -3860,7 +3864,7 @@
         <v>77</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>75</v>
@@ -3878,18 +3882,18 @@
         <v>77</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3912,13 +3916,13 @@
         <v>85</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3969,7 +3973,7 @@
         <v>77</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>75</v>
@@ -3987,18 +3991,18 @@
         <v>77</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4021,16 +4025,16 @@
         <v>85</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -4080,7 +4084,7 @@
         <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>75</v>
@@ -4098,18 +4102,18 @@
         <v>77</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4132,13 +4136,13 @@
         <v>85</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -4189,7 +4193,7 @@
         <v>77</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>75</v>
@@ -4204,10 +4208,10 @@
         <v>97</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>77</v>
@@ -4218,7 +4222,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4244,13 +4248,13 @@
         <v>100</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4300,7 +4304,7 @@
         <v>77</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>75</v>
@@ -4315,10 +4319,10 @@
         <v>97</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>77</v>
@@ -4329,11 +4333,11 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -4352,17 +4356,17 @@
         <v>85</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>77</v>
@@ -4411,7 +4415,7 @@
         <v>77</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>75</v>
@@ -4426,7 +4430,7 @@
         <v>97</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>77</v>
@@ -4440,11 +4444,11 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -4463,19 +4467,19 @@
         <v>85</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>77</v>
@@ -4524,7 +4528,7 @@
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>75</v>
@@ -4539,7 +4543,7 @@
         <v>97</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>77</v>
@@ -4553,7 +4557,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4576,16 +4580,16 @@
         <v>85</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4635,7 +4639,7 @@
         <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>75</v>
@@ -4664,7 +4668,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4690,16 +4694,16 @@
         <v>106</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>77</v>
@@ -4724,13 +4728,13 @@
         <v>77</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>77</v>
@@ -4748,7 +4752,7 @@
         <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>84</v>
@@ -4763,21 +4767,21 @@
         <v>97</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4803,16 +4807,16 @@
         <v>106</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>77</v>
@@ -4837,13 +4841,13 @@
         <v>77</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>77</v>
@@ -4861,7 +4865,7 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>84</v>
@@ -4876,7 +4880,7 @@
         <v>97</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>77</v>
@@ -4890,7 +4894,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4913,19 +4917,19 @@
         <v>85</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>77</v>
@@ -4950,13 +4954,13 @@
         <v>77</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>77</v>
@@ -4974,7 +4978,7 @@
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>75</v>
@@ -4995,7 +4999,7 @@
         <v>77</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>77</v>
@@ -5003,7 +5007,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5026,13 +5030,13 @@
         <v>85</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>86</v>
+        <v>153</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -5083,7 +5087,7 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>75</v>
@@ -5112,7 +5116,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5135,17 +5139,17 @@
         <v>85</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>86</v>
+        <v>153</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>77</v>
@@ -5194,7 +5198,7 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>75</v>
@@ -5215,7 +5219,7 @@
         <v>77</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>77</v>
@@ -5223,11 +5227,11 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -5246,13 +5250,13 @@
         <v>85</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -5303,7 +5307,7 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>84</v>
@@ -5318,21 +5322,21 @@
         <v>97</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5355,16 +5359,16 @@
         <v>85</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5414,7 +5418,7 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>75</v>
@@ -5429,25 +5433,25 @@
         <v>97</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -5466,19 +5470,19 @@
         <v>85</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>77</v>
@@ -5527,7 +5531,7 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>75</v>
@@ -5542,25 +5546,25 @@
         <v>97</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -5579,13 +5583,13 @@
         <v>85</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5636,7 +5640,7 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>75</v>
@@ -5651,13 +5655,13 @@
         <v>97</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>77</v>
@@ -5665,7 +5669,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5688,16 +5692,16 @@
         <v>85</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5747,7 +5751,7 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>75</v>
@@ -5762,13 +5766,13 @@
         <v>97</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>77</v>
@@ -5776,7 +5780,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5799,16 +5803,16 @@
         <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5858,7 +5862,7 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>75</v>
@@ -5887,7 +5891,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5910,17 +5914,17 @@
         <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>77</v>
@@ -5969,7 +5973,7 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>75</v>
@@ -5984,13 +5988,13 @@
         <v>97</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>77</v>
@@ -5998,7 +6002,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6021,19 +6025,19 @@
         <v>85</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>77</v>
@@ -6082,7 +6086,7 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>75</v>
@@ -6097,21 +6101,21 @@
         <v>97</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6134,19 +6138,19 @@
         <v>77</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>77</v>
@@ -6195,7 +6199,7 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>75</v>
@@ -6210,7 +6214,7 @@
         <v>97</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>77</v>
@@ -6224,7 +6228,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6247,19 +6251,19 @@
         <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>77</v>
@@ -6308,7 +6312,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>75</v>
@@ -6326,18 +6330,18 @@
         <v>77</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6360,17 +6364,17 @@
         <v>77</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>77</v>
@@ -6419,7 +6423,7 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>75</v>
@@ -6431,13 +6435,13 @@
         <v>77</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>77</v>
@@ -6448,7 +6452,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6471,13 +6475,13 @@
         <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>86</v>
+        <v>153</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6528,7 +6532,7 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>75</v>
@@ -6546,7 +6550,7 @@
         <v>77</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>77</v>
@@ -6557,7 +6561,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6586,7 +6590,7 @@
         <v>132</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M42" t="s" s="2">
         <v>134</v>
@@ -6639,7 +6643,7 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>75</v>
@@ -6657,7 +6661,7 @@
         <v>77</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>77</v>
@@ -6668,11 +6672,11 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6694,10 +6698,10 @@
         <v>131</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M43" t="s" s="2">
         <v>134</v>
@@ -6752,7 +6756,7 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>75</v>
@@ -6781,7 +6785,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6804,16 +6808,16 @@
         <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6839,13 +6843,13 @@
         <v>77</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>77</v>
@@ -6863,7 +6867,7 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>75</v>
@@ -6892,7 +6896,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6915,19 +6919,19 @@
         <v>77</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>77</v>
@@ -6976,7 +6980,7 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>75</v>
@@ -6991,10 +6995,10 @@
         <v>97</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>77</v>
@@ -7005,7 +7009,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7028,19 +7032,19 @@
         <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>77</v>
@@ -7089,7 +7093,7 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>75</v>
@@ -7107,18 +7111,18 @@
         <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7141,19 +7145,19 @@
         <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>77</v>
@@ -7202,7 +7206,7 @@
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>75</v>
@@ -7211,16 +7215,16 @@
         <v>84</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>77</v>
@@ -7231,7 +7235,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7254,17 +7258,17 @@
         <v>77</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>77</v>
@@ -7313,7 +7317,7 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>75</v>
@@ -7322,7 +7326,7 @@
         <v>84</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>97</v>
@@ -7331,7 +7335,7 @@
         <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>77</v>
@@ -7342,7 +7346,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7365,13 +7369,13 @@
         <v>77</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>86</v>
+        <v>153</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7422,7 +7426,7 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>75</v>
@@ -7440,7 +7444,7 @@
         <v>77</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>77</v>
@@ -7451,7 +7455,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7480,7 +7484,7 @@
         <v>132</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M50" t="s" s="2">
         <v>134</v>
@@ -7533,7 +7537,7 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>75</v>
@@ -7551,7 +7555,7 @@
         <v>77</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>77</v>
@@ -7562,11 +7566,11 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7588,10 +7592,10 @@
         <v>131</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M51" t="s" s="2">
         <v>134</v>
@@ -7646,7 +7650,7 @@
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>75</v>
@@ -7675,7 +7679,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7701,14 +7705,14 @@
         <v>106</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>77</v>
@@ -7733,13 +7737,13 @@
         <v>77</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>77</v>
@@ -7757,7 +7761,7 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>75</v>
@@ -7775,7 +7779,7 @@
         <v>77</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>77</v>
@@ -7786,7 +7790,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7809,17 +7813,17 @@
         <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>77</v>
@@ -7868,7 +7872,7 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>75</v>
@@ -7883,10 +7887,10 @@
         <v>97</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>77</v>
@@ -7897,7 +7901,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7923,16 +7927,16 @@
         <v>100</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>77</v>
@@ -7981,7 +7985,7 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>75</v>
@@ -7996,10 +8000,10 @@
         <v>97</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>77</v>
@@ -8010,7 +8014,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8033,19 +8037,19 @@
         <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>77</v>
@@ -8070,13 +8074,13 @@
         <v>77</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>77</v>
@@ -8094,7 +8098,7 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>75</v>
@@ -8109,21 +8113,21 @@
         <v>97</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8146,16 +8150,16 @@
         <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8181,13 +8185,13 @@
         <v>77</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>77</v>
@@ -8205,7 +8209,7 @@
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>75</v>
@@ -8220,7 +8224,7 @@
         <v>97</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>77</v>
@@ -8234,7 +8238,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8257,16 +8261,16 @@
         <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8316,7 +8320,7 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>75</v>
@@ -8331,7 +8335,7 @@
         <v>97</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>77</v>
@@ -8345,7 +8349,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8368,17 +8372,17 @@
         <v>77</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>77</v>
@@ -8427,7 +8431,7 @@
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>75</v>
@@ -8445,7 +8449,7 @@
         <v>77</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -8456,7 +8460,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8482,16 +8486,16 @@
         <v>106</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>77</v>
@@ -8516,13 +8520,13 @@
         <v>77</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>77</v>
@@ -8540,7 +8544,7 @@
         <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>84</v>
@@ -8555,21 +8559,21 @@
         <v>97</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8592,16 +8596,16 @@
         <v>77</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -8651,7 +8655,7 @@
         <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>75</v>
@@ -8666,7 +8670,7 @@
         <v>97</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>77</v>
@@ -8680,7 +8684,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8703,70 +8707,70 @@
         <v>77</v>
       </c>
       <c r="J61" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P61" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="Q61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE61" t="s" s="2">
         <v>465</v>
-      </c>
-      <c r="K61" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P61" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="Q61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>464</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>75</v>
@@ -8781,10 +8785,10 @@
         <v>97</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>77</v>
@@ -8795,7 +8799,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8818,17 +8822,17 @@
         <v>77</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>77</v>
@@ -8877,7 +8881,7 @@
         <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>75</v>
@@ -8892,21 +8896,21 @@
         <v>97</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8929,19 +8933,19 @@
         <v>77</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>77</v>
@@ -8990,7 +8994,7 @@
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>75</v>
@@ -9008,18 +9012,18 @@
         <v>77</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9042,19 +9046,19 @@
         <v>77</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>77</v>
@@ -9103,7 +9107,7 @@
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>75</v>
@@ -9118,21 +9122,21 @@
         <v>97</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9155,13 +9159,13 @@
         <v>77</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9188,13 +9192,13 @@
         <v>77</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>77</v>
@@ -9212,7 +9216,7 @@
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>75</v>
@@ -9230,22 +9234,22 @@
         <v>77</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9264,17 +9268,17 @@
         <v>77</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>77</v>
@@ -9323,7 +9327,7 @@
         <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>75</v>
@@ -9341,18 +9345,18 @@
         <v>77</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9375,13 +9379,13 @@
         <v>77</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -9432,7 +9436,7 @@
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>75</v>
@@ -9450,18 +9454,18 @@
         <v>77</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9484,13 +9488,13 @@
         <v>77</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>86</v>
+        <v>153</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9541,7 +9545,7 @@
         <v>77</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>75</v>
@@ -9559,18 +9563,18 @@
         <v>77</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9593,17 +9597,17 @@
         <v>77</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>77</v>
@@ -9652,7 +9656,7 @@
         <v>77</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>75</v>
@@ -9667,16 +9671,16 @@
         <v>97</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-cdm-careplan.xlsx
+++ b/StructureDefinition-cdm-careplan.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2465" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2465" uniqueCount="525">
   <si>
     <t>Property</t>
   </si>
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://ibm.com/fhir/cdm/StructureDefinition/cdm-careplan</t>
+    <t>http://linuxforhealth.org/fhir/cdm/StructureDefinition/cdm-careplan</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>7.0.0</t>
+    <t>8.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T16:11:15+00:00</t>
+    <t>2022-11-10T16:00:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Alvearie Team</t>
+    <t>LinuxForHealth Team</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -75,7 +75,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Health Data Connect Common Data Model definition of what fields we currently define for a care plan</t>
+    <t>LinuxForHealth Common Data Model definition of what fields we currently define for a care plan</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -256,10 +256,6 @@
     <t>Describes the intention of how one or more practitioners intend to deliver care for a particular patient, group or community for a period of time, possibly limited to care for a specific condition or set of conditions.</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
-  </si>
-  <si>
     <t>Request</t>
   </si>
   <si>
@@ -294,7 +290,7 @@
     <t>CarePlan.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta {http://ibm.com/fhir/cdm/StructureDefinition/process-meta}
+    <t xml:space="preserve">Meta {http://linuxforhealth.org/fhir/cdm/StructureDefinition/process-meta}
 </t>
   </si>
   <si>
@@ -578,7 +574,7 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>http://ibm.com/fhir/cdm/ValueSet/identifier-type</t>
+    <t>http://linuxforhealth.org/fhir/cdm/ValueSet/identifier-type</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -2207,13 +2203,13 @@
         <v>77</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="AK2" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AL2" t="s" s="2">
         <v>77</v>
@@ -2224,7 +2220,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -2235,28 +2231,28 @@
         <v>75</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>89</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -2306,13 +2302,13 @@
         <v>77</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>77</v>
@@ -2335,7 +2331,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2346,7 +2342,7 @@
         <v>75</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>77</v>
@@ -2358,13 +2354,13 @@
         <v>77</v>
       </c>
       <c r="J4" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2415,25 +2411,25 @@
         <v>77</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH4" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AF4" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH4" t="s" s="2">
+      <c r="AI4" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AI4" t="s" s="2">
+      <c r="AJ4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK4" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AJ4" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK4" t="s" s="2">
-        <v>98</v>
       </c>
       <c r="AL4" t="s" s="2">
         <v>77</v>
@@ -2444,7 +2440,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2455,28 +2451,28 @@
         <v>75</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -2526,19 +2522,19 @@
         <v>77</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>77</v>
@@ -2555,7 +2551,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2566,7 +2562,7 @@
         <v>75</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>77</v>
@@ -2578,16 +2574,16 @@
         <v>77</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2613,43 +2609,43 @@
         <v>77</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>113</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>77</v>
@@ -2666,18 +2662,18 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>77</v>
@@ -2689,16 +2685,16 @@
         <v>77</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>118</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>119</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2748,25 +2744,25 @@
         <v>77</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK7" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>77</v>
@@ -2777,11 +2773,11 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2800,16 +2796,16 @@
         <v>77</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2859,7 +2855,7 @@
         <v>77</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>75</v>
@@ -2877,7 +2873,7 @@
         <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>77</v>
@@ -2888,11 +2884,11 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2911,16 +2907,16 @@
         <v>77</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2970,7 +2966,7 @@
         <v>77</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>75</v>
@@ -2982,13 +2978,13 @@
         <v>77</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>77</v>
@@ -2999,11 +2995,11 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -3016,25 +3012,25 @@
         <v>77</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>140</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>77</v>
@@ -3083,7 +3079,7 @@
         <v>77</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>75</v>
@@ -3095,13 +3091,13 @@
         <v>77</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>77</v>
@@ -3112,7 +3108,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -3120,7 +3116,7 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>76</v>
@@ -3132,22 +3128,22 @@
         <v>77</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>77</v>
@@ -3196,7 +3192,7 @@
         <v>77</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>75</v>
@@ -3208,24 +3204,24 @@
         <v>77</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ11" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AK11" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="AK11" t="s" s="2">
+      <c r="AL11" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AM11" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="AM11" t="s" s="2">
-        <v>151</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3236,7 +3232,7 @@
         <v>75</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>77</v>
@@ -3248,13 +3244,13 @@
         <v>77</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -3305,25 +3301,25 @@
         <v>77</v>
       </c>
       <c r="AE12" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK12" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK12" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>77</v>
@@ -3334,11 +3330,11 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -3357,16 +3353,16 @@
         <v>77</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="K13" t="s" s="2">
-        <v>132</v>
-      </c>
       <c r="L13" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3404,19 +3400,19 @@
         <v>77</v>
       </c>
       <c r="AA13" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AB13" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="AB13" t="s" s="2">
+      <c r="AC13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD13" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="AC13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD13" t="s" s="2">
+      <c r="AE13" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>75</v>
@@ -3428,13 +3424,13 @@
         <v>77</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>77</v>
@@ -3445,7 +3441,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3456,31 +3452,31 @@
         <v>75</v>
       </c>
       <c r="F14" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H14" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H14" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="I14" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>77</v>
@@ -3505,60 +3501,60 @@
         <v>77</v>
       </c>
       <c r="W14" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="X14" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="X14" t="s" s="2">
+      <c r="Y14" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="Y14" t="s" s="2">
+      <c r="Z14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE14" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="Z14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE14" t="s" s="2">
+      <c r="AF14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK14" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="AF14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI14" t="s" s="2">
+      <c r="AL14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM14" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM14" t="s" s="2">
-        <v>98</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3569,31 +3565,31 @@
         <v>75</v>
       </c>
       <c r="F15" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I15" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J15" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>77</v>
@@ -3618,58 +3614,58 @@
         <v>77</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="X15" s="2"/>
       <c r="Y15" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="Z15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE15" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="Z15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE15" t="s" s="2">
+      <c r="AF15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AL15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM15" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>183</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3677,34 +3673,34 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F16" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I16" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="F16" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J16" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>77</v>
@@ -3717,72 +3713,72 @@
         <v>77</v>
       </c>
       <c r="S16" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="T16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE16" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="T16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE16" t="s" s="2">
+      <c r="AF16" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="AF16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK16" t="s" s="2">
+      <c r="AL16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM16" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>192</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3790,31 +3786,31 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F17" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I17" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="F17" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J17" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3828,72 +3824,72 @@
         <v>77</v>
       </c>
       <c r="S17" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="T17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE17" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="T17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE17" t="s" s="2">
+      <c r="AF17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK17" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="AF17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK17" t="s" s="2">
+      <c r="AL17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM17" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>200</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3904,25 +3900,25 @@
         <v>75</v>
       </c>
       <c r="F18" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I18" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J18" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3973,36 +3969,36 @@
         <v>77</v>
       </c>
       <c r="AE18" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="AF18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK18" t="s" s="2">
+      <c r="AL18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM18" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>207</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4013,28 +4009,28 @@
         <v>75</v>
       </c>
       <c r="F19" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I19" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J19" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -4084,36 +4080,36 @@
         <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK19" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="AF19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK19" t="s" s="2">
+      <c r="AL19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM19" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>215</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4133,16 +4129,16 @@
         <v>77</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -4193,7 +4189,7 @@
         <v>77</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>75</v>
@@ -4205,13 +4201,13 @@
         <v>77</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ20" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AK20" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>77</v>
@@ -4222,7 +4218,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4242,19 +4238,19 @@
         <v>77</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4304,7 +4300,7 @@
         <v>77</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>75</v>
@@ -4316,13 +4312,13 @@
         <v>77</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>77</v>
@@ -4333,11 +4329,11 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -4353,20 +4349,20 @@
         <v>77</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>77</v>
@@ -4415,7 +4411,7 @@
         <v>77</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>75</v>
@@ -4427,10 +4423,10 @@
         <v>77</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>77</v>
@@ -4444,11 +4440,11 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -4464,22 +4460,22 @@
         <v>77</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>77</v>
@@ -4528,7 +4524,7 @@
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>75</v>
@@ -4540,10 +4536,10 @@
         <v>77</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>77</v>
@@ -4557,7 +4553,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4577,19 +4573,19 @@
         <v>77</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4639,7 +4635,7 @@
         <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>75</v>
@@ -4651,7 +4647,7 @@
         <v>77</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>77</v>
@@ -4668,7 +4664,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4676,34 +4672,34 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F25" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H25" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="F25" t="s" s="2">
+      <c r="I25" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H25" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J25" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>77</v>
@@ -4728,60 +4724,60 @@
         <v>77</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="Y25" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="Z25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
+      <c r="AK25" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="AK25" t="s" s="2">
+      <c r="AL25" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="AL25" t="s" s="2">
+      <c r="AM25" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>254</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4789,34 +4785,34 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F26" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H26" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="F26" t="s" s="2">
+      <c r="I26" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H26" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J26" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>77</v>
@@ -4841,46 +4837,46 @@
         <v>77</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="X26" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="Y26" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="Y26" t="s" s="2">
+      <c r="Z26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="Z26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>77</v>
@@ -4894,7 +4890,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4914,22 +4910,22 @@
         <v>77</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>77</v>
@@ -4954,14 +4950,14 @@
         <v>77</v>
       </c>
       <c r="W27" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="X27" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="X27" t="s" s="2">
+      <c r="Y27" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="Y27" t="s" s="2">
-        <v>270</v>
-      </c>
       <c r="Z27" t="s" s="2">
         <v>77</v>
       </c>
@@ -4978,7 +4974,7 @@
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>75</v>
@@ -4990,7 +4986,7 @@
         <v>77</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>77</v>
@@ -4999,7 +4995,7 @@
         <v>77</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>77</v>
@@ -5007,7 +5003,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5018,25 +5014,25 @@
         <v>75</v>
       </c>
       <c r="F28" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I28" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J28" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -5087,19 +5083,19 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>77</v>
@@ -5116,7 +5112,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5127,29 +5123,29 @@
         <v>75</v>
       </c>
       <c r="F29" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I29" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J29" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>77</v>
@@ -5198,19 +5194,19 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>77</v>
@@ -5219,7 +5215,7 @@
         <v>77</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>77</v>
@@ -5227,36 +5223,36 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F30" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I30" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="F30" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I30" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J30" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -5307,36 +5303,36 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ30" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AK30" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="AK30" t="s" s="2">
+      <c r="AL30" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="AL30" t="s" s="2">
+      <c r="AM30" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>288</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5347,28 +5343,28 @@
         <v>75</v>
       </c>
       <c r="F31" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I31" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J31" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5418,71 +5414,71 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ31" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AK31" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="AK31" t="s" s="2">
+      <c r="AL31" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="AL31" t="s" s="2">
+      <c r="AM31" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>297</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F32" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I32" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I32" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J32" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>77</v>
@@ -5531,65 +5527,65 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ32" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AK32" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="AK32" t="s" s="2">
+      <c r="AL32" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="AL32" t="s" s="2">
+      <c r="AM32" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>307</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F33" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I33" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J33" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5640,28 +5636,28 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ33" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AK33" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="AK33" t="s" s="2">
+      <c r="AL33" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>77</v>
@@ -5669,7 +5665,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5680,28 +5676,28 @@
         <v>75</v>
       </c>
       <c r="F34" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I34" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J34" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="K34" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="K34" t="s" s="2">
+      <c r="L34" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5751,28 +5747,28 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ34" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL34" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>77</v>
@@ -5780,7 +5776,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5803,16 +5799,16 @@
         <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5862,7 +5858,7 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>75</v>
@@ -5874,7 +5870,7 @@
         <v>77</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>77</v>
@@ -5891,7 +5887,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5914,17 +5910,17 @@
         <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>77</v>
@@ -5973,7 +5969,7 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>75</v>
@@ -5985,16 +5981,16 @@
         <v>77</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ36" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>77</v>
@@ -6002,7 +5998,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6022,22 +6018,22 @@
         <v>77</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>77</v>
@@ -6086,7 +6082,7 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>75</v>
@@ -6098,24 +6094,24 @@
         <v>77</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ37" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AK37" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="AK37" t="s" s="2">
+      <c r="AL37" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="AL37" t="s" s="2">
+      <c r="AM37" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>343</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6138,19 +6134,19 @@
         <v>77</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>349</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>77</v>
@@ -6199,7 +6195,7 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>75</v>
@@ -6211,10 +6207,10 @@
         <v>77</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>77</v>
@@ -6228,7 +6224,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6251,19 +6247,19 @@
         <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>77</v>
@@ -6312,7 +6308,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>75</v>
@@ -6324,24 +6320,24 @@
         <v>77</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK39" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM39" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>358</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6364,17 +6360,17 @@
         <v>77</v>
       </c>
       <c r="J40" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="L40" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>77</v>
@@ -6423,7 +6419,7 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>75</v>
@@ -6435,13 +6431,13 @@
         <v>77</v>
       </c>
       <c r="AI40" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="AJ40" t="s" s="2">
+      <c r="AK40" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>77</v>
@@ -6452,7 +6448,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6463,7 +6459,7 @@
         <v>75</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>77</v>
@@ -6475,13 +6471,13 @@
         <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6532,25 +6528,25 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK41" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>77</v>
@@ -6561,11 +6557,11 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6584,16 +6580,16 @@
         <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="K42" t="s" s="2">
-        <v>132</v>
-      </c>
       <c r="L42" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6643,7 +6639,7 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>75</v>
@@ -6655,13 +6651,13 @@
         <v>77</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>77</v>
@@ -6672,11 +6668,11 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6689,25 +6685,25 @@
         <v>77</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="L43" t="s" s="2">
-        <v>372</v>
-      </c>
       <c r="M43" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>77</v>
@@ -6756,7 +6752,7 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>75</v>
@@ -6768,13 +6764,13 @@
         <v>77</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>77</v>
@@ -6785,7 +6781,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6808,16 +6804,16 @@
         <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6843,14 +6839,14 @@
         <v>77</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="X44" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="Y44" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="Y44" t="s" s="2">
-        <v>379</v>
-      </c>
       <c r="Z44" t="s" s="2">
         <v>77</v>
       </c>
@@ -6867,7 +6863,7 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>75</v>
@@ -6879,7 +6875,7 @@
         <v>77</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>77</v>
@@ -6896,7 +6892,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6919,19 +6915,19 @@
         <v>77</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>77</v>
@@ -6980,7 +6976,7 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>75</v>
@@ -6992,13 +6988,13 @@
         <v>77</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ45" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AK45" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>77</v>
@@ -7009,7 +7005,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7032,19 +7028,19 @@
         <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="K46" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="K46" t="s" s="2">
+      <c r="L46" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>77</v>
@@ -7093,7 +7089,7 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>75</v>
@@ -7105,24 +7101,24 @@
         <v>77</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM46" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>394</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7133,7 +7129,7 @@
         <v>75</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>77</v>
@@ -7145,19 +7141,19 @@
         <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="K47" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="K47" t="s" s="2">
+      <c r="L47" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>400</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>77</v>
@@ -7206,25 +7202,25 @@
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH47" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="AI47" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>402</v>
-      </c>
       <c r="AK47" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>77</v>
@@ -7235,7 +7231,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7246,7 +7242,7 @@
         <v>75</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>77</v>
@@ -7258,17 +7254,17 @@
         <v>77</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>77</v>
@@ -7317,25 +7313,25 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>77</v>
@@ -7346,7 +7342,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7357,7 +7353,7 @@
         <v>75</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>77</v>
@@ -7369,13 +7365,13 @@
         <v>77</v>
       </c>
       <c r="J49" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="K49" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="K49" t="s" s="2">
+      <c r="L49" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7426,25 +7422,25 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK49" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="AF49" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>77</v>
@@ -7455,11 +7451,11 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7478,16 +7474,16 @@
         <v>77</v>
       </c>
       <c r="J50" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K50" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="K50" t="s" s="2">
-        <v>132</v>
-      </c>
       <c r="L50" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -7537,7 +7533,7 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>75</v>
@@ -7549,13 +7545,13 @@
         <v>77</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>77</v>
@@ -7566,11 +7562,11 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7583,25 +7579,25 @@
         <v>77</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="L51" t="s" s="2">
-        <v>372</v>
-      </c>
       <c r="M51" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>77</v>
@@ -7650,7 +7646,7 @@
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>75</v>
@@ -7662,13 +7658,13 @@
         <v>77</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>77</v>
@@ -7679,7 +7675,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7690,7 +7686,7 @@
         <v>75</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>77</v>
@@ -7702,17 +7698,17 @@
         <v>77</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>413</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>77</v>
@@ -7737,49 +7733,49 @@
         <v>77</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="X52" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="Y52" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="Y52" t="s" s="2">
+      <c r="Z52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK52" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>77</v>
@@ -7790,7 +7786,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7813,17 +7809,17 @@
         <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="K53" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>77</v>
@@ -7872,7 +7868,7 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>75</v>
@@ -7884,13 +7880,13 @@
         <v>77</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ53" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AK53" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>77</v>
@@ -7901,7 +7897,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7924,19 +7920,19 @@
         <v>77</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>77</v>
@@ -7985,7 +7981,7 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>75</v>
@@ -7997,13 +7993,13 @@
         <v>77</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>77</v>
@@ -8014,7 +8010,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8025,7 +8021,7 @@
         <v>75</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>77</v>
@@ -8037,19 +8033,19 @@
         <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>428</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>77</v>
@@ -8074,60 +8070,60 @@
         <v>77</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="X55" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="Y55" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="Y55" t="s" s="2">
+      <c r="Z55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="Z55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
+      <c r="AK55" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="AK55" t="s" s="2">
+      <c r="AL55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM55" t="s" s="2">
         <v>432</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>433</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8150,16 +8146,16 @@
         <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>437</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8185,14 +8181,14 @@
         <v>77</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="X56" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="Y56" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="Y56" t="s" s="2">
-        <v>439</v>
-      </c>
       <c r="Z56" t="s" s="2">
         <v>77</v>
       </c>
@@ -8209,7 +8205,7 @@
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>75</v>
@@ -8221,10 +8217,10 @@
         <v>77</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>77</v>
@@ -8238,7 +8234,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8261,16 +8257,16 @@
         <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="K57" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="K57" t="s" s="2">
+      <c r="L57" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>444</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>445</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8320,7 +8316,7 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>75</v>
@@ -8332,10 +8328,10 @@
         <v>77</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>77</v>
@@ -8349,7 +8345,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8372,17 +8368,17 @@
         <v>77</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>447</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>448</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>77</v>
@@ -8431,7 +8427,7 @@
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>75</v>
@@ -8443,13 +8439,13 @@
         <v>77</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -8460,7 +8456,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8468,34 +8464,34 @@
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H59" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="F59" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H59" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="I59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>453</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>454</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>77</v>
@@ -8520,60 +8516,60 @@
         <v>77</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="X59" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="Y59" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="Y59" t="s" s="2">
+      <c r="Z59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
         <v>456</v>
       </c>
-      <c r="Z59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
+      <c r="AK59" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="AK59" t="s" s="2">
+      <c r="AL59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM59" t="s" s="2">
         <v>458</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>459</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8584,7 +8580,7 @@
         <v>75</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>77</v>
@@ -8596,16 +8592,16 @@
         <v>77</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>462</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>463</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -8655,22 +8651,22 @@
         <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>77</v>
@@ -8684,7 +8680,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8695,100 +8691,100 @@
         <v>75</v>
       </c>
       <c r="F61" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H61" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="I61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J61" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="K61" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="K61" t="s" s="2">
+      <c r="L61" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="N61" t="s" s="2">
+      <c r="O61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P61" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="O61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P61" t="s" s="2">
+      <c r="Q61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="Q61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
+      <c r="AK61" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>473</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>77</v>
@@ -8799,7 +8795,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8810,7 +8806,7 @@
         <v>75</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>77</v>
@@ -8822,17 +8818,17 @@
         <v>77</v>
       </c>
       <c r="J62" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="K62" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="K62" t="s" s="2">
+      <c r="L62" t="s" s="2">
         <v>476</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>477</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>77</v>
@@ -8881,36 +8877,36 @@
         <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ62" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AK62" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="AK62" t="s" s="2">
-        <v>305</v>
-      </c>
       <c r="AL62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8921,7 +8917,7 @@
         <v>75</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>77</v>
@@ -8933,19 +8929,19 @@
         <v>77</v>
       </c>
       <c r="J63" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="K63" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="K63" t="s" s="2">
+      <c r="L63" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>484</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>485</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>77</v>
@@ -8994,36 +8990,36 @@
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK63" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM63" t="s" s="2">
         <v>486</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>487</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9046,19 +9042,19 @@
         <v>77</v>
       </c>
       <c r="J64" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="K64" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="K64" t="s" s="2">
+      <c r="L64" t="s" s="2">
         <v>490</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>491</v>
       </c>
-      <c r="M64" t="s" s="2">
-        <v>492</v>
-      </c>
       <c r="N64" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>77</v>
@@ -9107,7 +9103,7 @@
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>75</v>
@@ -9119,24 +9115,24 @@
         <v>77</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ64" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="AK64" t="s" s="2">
         <v>493</v>
       </c>
-      <c r="AK64" t="s" s="2">
+      <c r="AL64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM64" t="s" s="2">
         <v>494</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>495</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9147,7 +9143,7 @@
         <v>75</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>77</v>
@@ -9159,13 +9155,13 @@
         <v>77</v>
       </c>
       <c r="J65" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="K65" t="s" s="2">
         <v>497</v>
       </c>
-      <c r="K65" t="s" s="2">
+      <c r="L65" t="s" s="2">
         <v>498</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>499</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9192,71 +9188,71 @@
         <v>77</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="X65" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="Y65" t="s" s="2">
         <v>500</v>
       </c>
-      <c r="Y65" t="s" s="2">
+      <c r="Z65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK65" t="s" s="2">
         <v>501</v>
       </c>
-      <c r="Z65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK65" t="s" s="2">
+      <c r="AL65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM65" t="s" s="2">
         <v>502</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>503</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>77</v>
@@ -9268,17 +9264,17 @@
         <v>77</v>
       </c>
       <c r="J66" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="K66" t="s" s="2">
         <v>506</v>
       </c>
-      <c r="K66" t="s" s="2">
+      <c r="L66" t="s" s="2">
         <v>507</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>508</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>77</v>
@@ -9327,36 +9323,36 @@
         <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK66" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM66" t="s" s="2">
         <v>510</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>511</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9367,7 +9363,7 @@
         <v>75</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>77</v>
@@ -9379,13 +9375,13 @@
         <v>77</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>513</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>514</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -9436,36 +9432,36 @@
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK67" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM67" t="s" s="2">
         <v>515</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>516</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9476,7 +9472,7 @@
         <v>75</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>77</v>
@@ -9488,13 +9484,13 @@
         <v>77</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>518</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>519</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9545,36 +9541,36 @@
         <v>77</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9597,17 +9593,17 @@
         <v>77</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>522</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>523</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>77</v>
@@ -9656,7 +9652,7 @@
         <v>77</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>75</v>
@@ -9668,19 +9664,19 @@
         <v>77</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AK69" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM69" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>394</v>
       </c>
     </row>
   </sheetData>
